--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_228.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_228.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82362-Reviews-Doubletree_by_Hilton_Torrance_South_Bay-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>953</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Torrance-South-Bay.h3935.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528304035404&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=d5893209-86b8-45ea-8958-97e034217e5f&amp;mctc=9&amp;exp_dp=217.48&amp;exp_ts=1528304036382&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_228.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_228.xlsx
@@ -12813,7 +12813,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>142447</v>
+        <v>173649</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12874,7 +12874,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>142448</v>
+        <v>173650</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -13095,7 +13095,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="n">
-        <v>142449</v>
+        <v>173651</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -13170,7 +13170,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="n">
-        <v>142450</v>
+        <v>173652</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -13314,7 +13314,7 @@
         <v>165</v>
       </c>
       <c r="B9" t="n">
-        <v>142451</v>
+        <v>173653</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -13389,7 +13389,7 @@
         <v>165</v>
       </c>
       <c r="B10" t="n">
-        <v>142452</v>
+        <v>173654</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
@@ -13539,7 +13539,7 @@
         <v>165</v>
       </c>
       <c r="B12" t="n">
-        <v>142453</v>
+        <v>142477</v>
       </c>
       <c r="C12" t="s">
         <v>140</v>
@@ -13610,7 +13610,7 @@
         <v>165</v>
       </c>
       <c r="B13" t="n">
-        <v>142454</v>
+        <v>173655</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -13750,7 +13750,7 @@
         <v>165</v>
       </c>
       <c r="B15" t="n">
-        <v>142455</v>
+        <v>173656</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -13825,7 +13825,7 @@
         <v>165</v>
       </c>
       <c r="B16" t="n">
-        <v>142456</v>
+        <v>173657</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -13961,7 +13961,7 @@
         <v>165</v>
       </c>
       <c r="B18" t="n">
-        <v>142457</v>
+        <v>173658</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -14026,7 +14026,7 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>142458</v>
+        <v>173659</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -14097,7 +14097,7 @@
         <v>165</v>
       </c>
       <c r="B20" t="n">
-        <v>142459</v>
+        <v>173660</v>
       </c>
       <c r="C20" t="s">
         <v>211</v>
@@ -14247,7 +14247,7 @@
         <v>165</v>
       </c>
       <c r="B22" t="n">
-        <v>142460</v>
+        <v>173661</v>
       </c>
       <c r="C22" t="s">
         <v>229</v>
@@ -14322,7 +14322,7 @@
         <v>165</v>
       </c>
       <c r="B23" t="n">
-        <v>142461</v>
+        <v>173662</v>
       </c>
       <c r="C23" t="s">
         <v>238</v>
@@ -14383,7 +14383,7 @@
         <v>165</v>
       </c>
       <c r="B24" t="n">
-        <v>142462</v>
+        <v>173663</v>
       </c>
       <c r="C24" t="s">
         <v>245</v>
@@ -14452,7 +14452,7 @@
         <v>165</v>
       </c>
       <c r="B25" t="n">
-        <v>142463</v>
+        <v>173664</v>
       </c>
       <c r="C25" t="s">
         <v>251</v>
@@ -14527,7 +14527,7 @@
         <v>165</v>
       </c>
       <c r="B26" t="n">
-        <v>142464</v>
+        <v>173665</v>
       </c>
       <c r="C26" t="s">
         <v>260</v>
@@ -14602,7 +14602,7 @@
         <v>165</v>
       </c>
       <c r="B27" t="n">
-        <v>142465</v>
+        <v>173666</v>
       </c>
       <c r="C27" t="s">
         <v>270</v>
@@ -14752,7 +14752,7 @@
         <v>165</v>
       </c>
       <c r="B29" t="n">
-        <v>142466</v>
+        <v>173667</v>
       </c>
       <c r="C29" t="s">
         <v>283</v>
@@ -14827,7 +14827,7 @@
         <v>165</v>
       </c>
       <c r="B30" t="n">
-        <v>142467</v>
+        <v>173668</v>
       </c>
       <c r="C30" t="s">
         <v>292</v>
@@ -14896,7 +14896,7 @@
         <v>165</v>
       </c>
       <c r="B31" t="n">
-        <v>142468</v>
+        <v>173669</v>
       </c>
       <c r="C31" t="s">
         <v>301</v>
@@ -14971,7 +14971,7 @@
         <v>165</v>
       </c>
       <c r="B32" t="n">
-        <v>142469</v>
+        <v>173670</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -15046,7 +15046,7 @@
         <v>165</v>
       </c>
       <c r="B33" t="n">
-        <v>142470</v>
+        <v>173671</v>
       </c>
       <c r="C33" t="s">
         <v>320</v>
@@ -15186,7 +15186,7 @@
         <v>165</v>
       </c>
       <c r="B35" t="n">
-        <v>142471</v>
+        <v>173672</v>
       </c>
       <c r="C35" t="s">
         <v>335</v>
@@ -15261,7 +15261,7 @@
         <v>165</v>
       </c>
       <c r="B36" t="n">
-        <v>142472</v>
+        <v>173673</v>
       </c>
       <c r="C36" t="s">
         <v>344</v>
@@ -15336,7 +15336,7 @@
         <v>165</v>
       </c>
       <c r="B37" t="n">
-        <v>142473</v>
+        <v>173674</v>
       </c>
       <c r="C37" t="s">
         <v>353</v>
@@ -15411,7 +15411,7 @@
         <v>165</v>
       </c>
       <c r="B38" t="n">
-        <v>142474</v>
+        <v>173675</v>
       </c>
       <c r="C38" t="s">
         <v>360</v>
@@ -15557,7 +15557,7 @@
         <v>165</v>
       </c>
       <c r="B40" t="n">
-        <v>142475</v>
+        <v>173676</v>
       </c>
       <c r="C40" t="s">
         <v>377</v>
@@ -15632,7 +15632,7 @@
         <v>165</v>
       </c>
       <c r="B41" t="n">
-        <v>142476</v>
+        <v>173677</v>
       </c>
       <c r="C41" t="s">
         <v>383</v>
@@ -15701,7 +15701,7 @@
         <v>165</v>
       </c>
       <c r="B42" t="n">
-        <v>142477</v>
+        <v>173678</v>
       </c>
       <c r="C42" t="s">
         <v>392</v>
@@ -15776,7 +15776,7 @@
         <v>165</v>
       </c>
       <c r="B43" t="n">
-        <v>142478</v>
+        <v>173679</v>
       </c>
       <c r="C43" t="s">
         <v>398</v>
@@ -15851,7 +15851,7 @@
         <v>165</v>
       </c>
       <c r="B44" t="n">
-        <v>142479</v>
+        <v>173680</v>
       </c>
       <c r="C44" t="s">
         <v>407</v>
@@ -16066,7 +16066,7 @@
         <v>165</v>
       </c>
       <c r="B47" t="n">
-        <v>142480</v>
+        <v>173681</v>
       </c>
       <c r="C47" t="s">
         <v>433</v>
@@ -16137,7 +16137,7 @@
         <v>165</v>
       </c>
       <c r="B48" t="n">
-        <v>142481</v>
+        <v>173682</v>
       </c>
       <c r="C48" t="s">
         <v>443</v>
@@ -16202,7 +16202,7 @@
         <v>165</v>
       </c>
       <c r="B49" t="n">
-        <v>142482</v>
+        <v>173683</v>
       </c>
       <c r="C49" t="s">
         <v>450</v>
@@ -16277,7 +16277,7 @@
         <v>165</v>
       </c>
       <c r="B50" t="n">
-        <v>142483</v>
+        <v>173684</v>
       </c>
       <c r="C50" t="s">
         <v>459</v>
@@ -16352,7 +16352,7 @@
         <v>165</v>
       </c>
       <c r="B51" t="n">
-        <v>142484</v>
+        <v>173685</v>
       </c>
       <c r="C51" t="s">
         <v>468</v>
@@ -16427,7 +16427,7 @@
         <v>165</v>
       </c>
       <c r="B52" t="n">
-        <v>142485</v>
+        <v>173686</v>
       </c>
       <c r="C52" t="s">
         <v>475</v>
@@ -16492,7 +16492,7 @@
         <v>165</v>
       </c>
       <c r="B53" t="n">
-        <v>142486</v>
+        <v>173687</v>
       </c>
       <c r="C53" t="s">
         <v>485</v>
@@ -16567,7 +16567,7 @@
         <v>165</v>
       </c>
       <c r="B54" t="n">
-        <v>142487</v>
+        <v>173688</v>
       </c>
       <c r="C54" t="s">
         <v>494</v>
@@ -16642,7 +16642,7 @@
         <v>165</v>
       </c>
       <c r="B55" t="n">
-        <v>142488</v>
+        <v>173689</v>
       </c>
       <c r="C55" t="s">
         <v>500</v>
@@ -16707,7 +16707,7 @@
         <v>165</v>
       </c>
       <c r="B56" t="n">
-        <v>142489</v>
+        <v>173690</v>
       </c>
       <c r="C56" t="s">
         <v>507</v>
@@ -16778,7 +16778,7 @@
         <v>165</v>
       </c>
       <c r="B57" t="n">
-        <v>142490</v>
+        <v>142489</v>
       </c>
       <c r="C57" t="s">
         <v>516</v>
@@ -17068,7 +17068,7 @@
         <v>165</v>
       </c>
       <c r="B61" t="n">
-        <v>142491</v>
+        <v>173691</v>
       </c>
       <c r="C61" t="s">
         <v>550</v>
@@ -17143,7 +17143,7 @@
         <v>165</v>
       </c>
       <c r="B62" t="n">
-        <v>142492</v>
+        <v>173692</v>
       </c>
       <c r="C62" t="s">
         <v>559</v>
@@ -17208,7 +17208,7 @@
         <v>165</v>
       </c>
       <c r="B63" t="n">
-        <v>142493</v>
+        <v>173693</v>
       </c>
       <c r="C63" t="s">
         <v>569</v>
@@ -17283,7 +17283,7 @@
         <v>165</v>
       </c>
       <c r="B64" t="n">
-        <v>142494</v>
+        <v>173694</v>
       </c>
       <c r="C64" t="s">
         <v>575</v>
@@ -17358,7 +17358,7 @@
         <v>165</v>
       </c>
       <c r="B65" t="n">
-        <v>142495</v>
+        <v>173695</v>
       </c>
       <c r="C65" t="s">
         <v>581</v>
@@ -17433,7 +17433,7 @@
         <v>165</v>
       </c>
       <c r="B66" t="n">
-        <v>142496</v>
+        <v>173696</v>
       </c>
       <c r="C66" t="s">
         <v>590</v>
@@ -17636,7 +17636,7 @@
         <v>165</v>
       </c>
       <c r="B69" t="n">
-        <v>142497</v>
+        <v>173697</v>
       </c>
       <c r="C69" t="s">
         <v>616</v>
@@ -17707,7 +17707,7 @@
         <v>165</v>
       </c>
       <c r="B70" t="n">
-        <v>142498</v>
+        <v>173698</v>
       </c>
       <c r="C70" t="s">
         <v>622</v>
@@ -17782,7 +17782,7 @@
         <v>165</v>
       </c>
       <c r="B71" t="n">
-        <v>142499</v>
+        <v>173699</v>
       </c>
       <c r="C71" t="s">
         <v>629</v>
@@ -17857,7 +17857,7 @@
         <v>165</v>
       </c>
       <c r="B72" t="n">
-        <v>142500</v>
+        <v>173700</v>
       </c>
       <c r="C72" t="s">
         <v>636</v>
@@ -17932,7 +17932,7 @@
         <v>165</v>
       </c>
       <c r="B73" t="n">
-        <v>142501</v>
+        <v>173701</v>
       </c>
       <c r="C73" t="s">
         <v>643</v>
@@ -18007,7 +18007,7 @@
         <v>165</v>
       </c>
       <c r="B74" t="n">
-        <v>142502</v>
+        <v>173702</v>
       </c>
       <c r="C74" t="s">
         <v>652</v>
@@ -18082,7 +18082,7 @@
         <v>165</v>
       </c>
       <c r="B75" t="n">
-        <v>142503</v>
+        <v>173703</v>
       </c>
       <c r="C75" t="s">
         <v>659</v>
@@ -18232,7 +18232,7 @@
         <v>165</v>
       </c>
       <c r="B77" t="n">
-        <v>142504</v>
+        <v>173704</v>
       </c>
       <c r="C77" t="s">
         <v>672</v>
@@ -18297,7 +18297,7 @@
         <v>165</v>
       </c>
       <c r="B78" t="n">
-        <v>142505</v>
+        <v>173705</v>
       </c>
       <c r="C78" t="s">
         <v>679</v>
@@ -18443,7 +18443,7 @@
         <v>165</v>
       </c>
       <c r="B80" t="n">
-        <v>142506</v>
+        <v>173706</v>
       </c>
       <c r="C80" t="s">
         <v>695</v>
@@ -18593,7 +18593,7 @@
         <v>165</v>
       </c>
       <c r="B82" t="n">
-        <v>142507</v>
+        <v>173707</v>
       </c>
       <c r="C82" t="s">
         <v>708</v>
@@ -18668,7 +18668,7 @@
         <v>165</v>
       </c>
       <c r="B83" t="n">
-        <v>142508</v>
+        <v>173708</v>
       </c>
       <c r="C83" t="s">
         <v>714</v>
@@ -18739,7 +18739,7 @@
         <v>165</v>
       </c>
       <c r="B84" t="n">
-        <v>142509</v>
+        <v>173709</v>
       </c>
       <c r="C84" t="s">
         <v>723</v>
@@ -18804,7 +18804,7 @@
         <v>165</v>
       </c>
       <c r="B85" t="n">
-        <v>142510</v>
+        <v>173710</v>
       </c>
       <c r="C85" t="s">
         <v>731</v>
@@ -18948,7 +18948,7 @@
         <v>165</v>
       </c>
       <c r="B87" t="n">
-        <v>142511</v>
+        <v>173711</v>
       </c>
       <c r="C87" t="s">
         <v>745</v>
@@ -19023,7 +19023,7 @@
         <v>165</v>
       </c>
       <c r="B88" t="n">
-        <v>142512</v>
+        <v>173712</v>
       </c>
       <c r="C88" t="s">
         <v>754</v>
@@ -19098,7 +19098,7 @@
         <v>165</v>
       </c>
       <c r="B89" t="n">
-        <v>142513</v>
+        <v>173713</v>
       </c>
       <c r="C89" t="s">
         <v>763</v>
@@ -19248,7 +19248,7 @@
         <v>165</v>
       </c>
       <c r="B91" t="n">
-        <v>142514</v>
+        <v>173714</v>
       </c>
       <c r="C91" t="s">
         <v>781</v>
@@ -19323,7 +19323,7 @@
         <v>165</v>
       </c>
       <c r="B92" t="n">
-        <v>142515</v>
+        <v>173715</v>
       </c>
       <c r="C92" t="s">
         <v>787</v>
@@ -19398,7 +19398,7 @@
         <v>165</v>
       </c>
       <c r="B93" t="n">
-        <v>142516</v>
+        <v>173716</v>
       </c>
       <c r="C93" t="s">
         <v>796</v>
@@ -19473,7 +19473,7 @@
         <v>165</v>
       </c>
       <c r="B94" t="n">
-        <v>142517</v>
+        <v>173717</v>
       </c>
       <c r="C94" t="s">
         <v>802</v>
@@ -19542,7 +19542,7 @@
         <v>165</v>
       </c>
       <c r="B95" t="n">
-        <v>142518</v>
+        <v>173718</v>
       </c>
       <c r="C95" t="s">
         <v>811</v>
@@ -19617,7 +19617,7 @@
         <v>165</v>
       </c>
       <c r="B96" t="n">
-        <v>142519</v>
+        <v>173719</v>
       </c>
       <c r="C96" t="s">
         <v>820</v>
@@ -19692,7 +19692,7 @@
         <v>165</v>
       </c>
       <c r="B97" t="n">
-        <v>142520</v>
+        <v>173720</v>
       </c>
       <c r="C97" t="s">
         <v>827</v>
@@ -19767,7 +19767,7 @@
         <v>165</v>
       </c>
       <c r="B98" t="n">
-        <v>142521</v>
+        <v>173721</v>
       </c>
       <c r="C98" t="s">
         <v>836</v>
@@ -19842,7 +19842,7 @@
         <v>165</v>
       </c>
       <c r="B99" t="n">
-        <v>142522</v>
+        <v>173722</v>
       </c>
       <c r="C99" t="s">
         <v>845</v>
@@ -19917,7 +19917,7 @@
         <v>165</v>
       </c>
       <c r="B100" t="n">
-        <v>142523</v>
+        <v>173723</v>
       </c>
       <c r="C100" t="s">
         <v>854</v>
@@ -19992,7 +19992,7 @@
         <v>165</v>
       </c>
       <c r="B101" t="n">
-        <v>142524</v>
+        <v>173724</v>
       </c>
       <c r="C101" t="s">
         <v>860</v>
@@ -20067,7 +20067,7 @@
         <v>165</v>
       </c>
       <c r="B102" t="n">
-        <v>142525</v>
+        <v>173725</v>
       </c>
       <c r="C102" t="s">
         <v>869</v>
@@ -20142,7 +20142,7 @@
         <v>165</v>
       </c>
       <c r="B103" t="n">
-        <v>142526</v>
+        <v>173726</v>
       </c>
       <c r="C103" t="s">
         <v>878</v>
@@ -20367,7 +20367,7 @@
         <v>165</v>
       </c>
       <c r="B106" t="n">
-        <v>142527</v>
+        <v>173727</v>
       </c>
       <c r="C106" t="s">
         <v>905</v>
@@ -20588,7 +20588,7 @@
         <v>165</v>
       </c>
       <c r="B109" t="n">
-        <v>142528</v>
+        <v>173728</v>
       </c>
       <c r="C109" t="s">
         <v>930</v>
@@ -20738,7 +20738,7 @@
         <v>165</v>
       </c>
       <c r="B111" t="n">
-        <v>142529</v>
+        <v>173729</v>
       </c>
       <c r="C111" t="s">
         <v>948</v>
@@ -20813,7 +20813,7 @@
         <v>165</v>
       </c>
       <c r="B112" t="n">
-        <v>142530</v>
+        <v>173730</v>
       </c>
       <c r="C112" t="s">
         <v>954</v>
@@ -20963,7 +20963,7 @@
         <v>165</v>
       </c>
       <c r="B114" t="n">
-        <v>142531</v>
+        <v>173731</v>
       </c>
       <c r="C114" t="s">
         <v>972</v>
@@ -21028,7 +21028,7 @@
         <v>165</v>
       </c>
       <c r="B115" t="n">
-        <v>142532</v>
+        <v>173732</v>
       </c>
       <c r="C115" t="s">
         <v>981</v>
@@ -21103,7 +21103,7 @@
         <v>165</v>
       </c>
       <c r="B116" t="n">
-        <v>142533</v>
+        <v>173733</v>
       </c>
       <c r="C116" t="s">
         <v>991</v>
@@ -21178,7 +21178,7 @@
         <v>165</v>
       </c>
       <c r="B117" t="n">
-        <v>142534</v>
+        <v>173734</v>
       </c>
       <c r="C117" t="s">
         <v>1000</v>
@@ -21243,7 +21243,7 @@
         <v>165</v>
       </c>
       <c r="B118" t="n">
-        <v>142535</v>
+        <v>173735</v>
       </c>
       <c r="C118" t="s">
         <v>1006</v>
@@ -21318,7 +21318,7 @@
         <v>165</v>
       </c>
       <c r="B119" t="n">
-        <v>142536</v>
+        <v>173736</v>
       </c>
       <c r="C119" t="s">
         <v>1015</v>
@@ -21393,7 +21393,7 @@
         <v>165</v>
       </c>
       <c r="B120" t="n">
-        <v>142537</v>
+        <v>173737</v>
       </c>
       <c r="C120" t="s">
         <v>1024</v>
@@ -21604,7 +21604,7 @@
         <v>165</v>
       </c>
       <c r="B123" t="n">
-        <v>142538</v>
+        <v>173738</v>
       </c>
       <c r="C123" t="s">
         <v>1047</v>
@@ -21679,7 +21679,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="n">
-        <v>142539</v>
+        <v>173739</v>
       </c>
       <c r="C124" t="s">
         <v>1054</v>
@@ -21754,7 +21754,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="n">
-        <v>142540</v>
+        <v>173740</v>
       </c>
       <c r="C125" t="s">
         <v>1060</v>
@@ -21819,7 +21819,7 @@
         <v>165</v>
       </c>
       <c r="B126" t="n">
-        <v>142541</v>
+        <v>173741</v>
       </c>
       <c r="C126" t="s">
         <v>1070</v>
@@ -21894,7 +21894,7 @@
         <v>165</v>
       </c>
       <c r="B127" t="n">
-        <v>142542</v>
+        <v>173742</v>
       </c>
       <c r="C127" t="s">
         <v>1077</v>
@@ -21969,7 +21969,7 @@
         <v>165</v>
       </c>
       <c r="B128" t="n">
-        <v>142543</v>
+        <v>173743</v>
       </c>
       <c r="C128" t="s">
         <v>1084</v>
@@ -22038,7 +22038,7 @@
         <v>165</v>
       </c>
       <c r="B129" t="n">
-        <v>142544</v>
+        <v>173744</v>
       </c>
       <c r="C129" t="s">
         <v>1093</v>
@@ -22113,7 +22113,7 @@
         <v>165</v>
       </c>
       <c r="B130" t="n">
-        <v>142545</v>
+        <v>173745</v>
       </c>
       <c r="C130" t="s">
         <v>1099</v>
@@ -22249,7 +22249,7 @@
         <v>165</v>
       </c>
       <c r="B132" t="n">
-        <v>142546</v>
+        <v>173746</v>
       </c>
       <c r="C132" t="s">
         <v>1117</v>
@@ -22324,7 +22324,7 @@
         <v>165</v>
       </c>
       <c r="B133" t="n">
-        <v>142547</v>
+        <v>173747</v>
       </c>
       <c r="C133" t="s">
         <v>1124</v>
@@ -22399,7 +22399,7 @@
         <v>165</v>
       </c>
       <c r="B134" t="n">
-        <v>142548</v>
+        <v>173748</v>
       </c>
       <c r="C134" t="s">
         <v>1133</v>
@@ -22474,7 +22474,7 @@
         <v>165</v>
       </c>
       <c r="B135" t="n">
-        <v>142549</v>
+        <v>173749</v>
       </c>
       <c r="C135" t="s">
         <v>1140</v>
@@ -22539,7 +22539,7 @@
         <v>165</v>
       </c>
       <c r="B136" t="n">
-        <v>142550</v>
+        <v>173750</v>
       </c>
       <c r="C136" t="s">
         <v>1149</v>
@@ -22614,7 +22614,7 @@
         <v>165</v>
       </c>
       <c r="B137" t="n">
-        <v>142452</v>
+        <v>142477</v>
       </c>
       <c r="C137" t="s">
         <v>140</v>
@@ -22683,7 +22683,7 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>142551</v>
+        <v>173751</v>
       </c>
       <c r="C138" t="s">
         <v>1161</v>
@@ -22758,7 +22758,7 @@
         <v>165</v>
       </c>
       <c r="B139" t="n">
-        <v>142552</v>
+        <v>173752</v>
       </c>
       <c r="C139" t="s">
         <v>1167</v>
@@ -22827,7 +22827,7 @@
         <v>165</v>
       </c>
       <c r="B140" t="n">
-        <v>142553</v>
+        <v>173753</v>
       </c>
       <c r="C140" t="s">
         <v>1176</v>
@@ -22902,7 +22902,7 @@
         <v>165</v>
       </c>
       <c r="B141" t="n">
-        <v>142554</v>
+        <v>173754</v>
       </c>
       <c r="C141" t="s">
         <v>1183</v>
@@ -23052,7 +23052,7 @@
         <v>165</v>
       </c>
       <c r="B143" t="n">
-        <v>142555</v>
+        <v>173755</v>
       </c>
       <c r="C143" t="s">
         <v>1199</v>
@@ -23127,7 +23127,7 @@
         <v>165</v>
       </c>
       <c r="B144" t="n">
-        <v>142556</v>
+        <v>173756</v>
       </c>
       <c r="C144" t="s">
         <v>1208</v>
@@ -23196,7 +23196,7 @@
         <v>165</v>
       </c>
       <c r="B145" t="n">
-        <v>142557</v>
+        <v>173757</v>
       </c>
       <c r="C145" t="s">
         <v>1218</v>
@@ -23261,7 +23261,7 @@
         <v>165</v>
       </c>
       <c r="B146" t="n">
-        <v>142558</v>
+        <v>173758</v>
       </c>
       <c r="C146" t="s">
         <v>1225</v>
@@ -23326,7 +23326,7 @@
         <v>165</v>
       </c>
       <c r="B147" t="n">
-        <v>142559</v>
+        <v>173759</v>
       </c>
       <c r="C147" t="s">
         <v>1234</v>
@@ -23397,7 +23397,7 @@
         <v>165</v>
       </c>
       <c r="B148" t="n">
-        <v>142560</v>
+        <v>173760</v>
       </c>
       <c r="C148" t="s">
         <v>1240</v>
@@ -23472,7 +23472,7 @@
         <v>165</v>
       </c>
       <c r="B149" t="n">
-        <v>142561</v>
+        <v>173761</v>
       </c>
       <c r="C149" t="s">
         <v>1249</v>
@@ -23547,7 +23547,7 @@
         <v>165</v>
       </c>
       <c r="B150" t="n">
-        <v>142562</v>
+        <v>173762</v>
       </c>
       <c r="C150" t="s">
         <v>1257</v>
@@ -23760,7 +23760,7 @@
         <v>165</v>
       </c>
       <c r="B153" t="n">
-        <v>142563</v>
+        <v>173763</v>
       </c>
       <c r="C153" t="s">
         <v>1283</v>
@@ -23985,7 +23985,7 @@
         <v>165</v>
       </c>
       <c r="B156" t="n">
-        <v>142564</v>
+        <v>173764</v>
       </c>
       <c r="C156" t="s">
         <v>1306</v>
@@ -24060,7 +24060,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="n">
-        <v>142565</v>
+        <v>173765</v>
       </c>
       <c r="C157" t="s">
         <v>1315</v>
@@ -24131,7 +24131,7 @@
         <v>165</v>
       </c>
       <c r="B158" t="n">
-        <v>142566</v>
+        <v>173766</v>
       </c>
       <c r="C158" t="s">
         <v>1321</v>
@@ -24196,7 +24196,7 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>142567</v>
+        <v>173767</v>
       </c>
       <c r="C159" t="s">
         <v>1330</v>
@@ -24267,7 +24267,7 @@
         <v>165</v>
       </c>
       <c r="B160" t="n">
-        <v>142568</v>
+        <v>173768</v>
       </c>
       <c r="C160" t="s">
         <v>1336</v>
@@ -24484,7 +24484,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>142569</v>
+        <v>173769</v>
       </c>
       <c r="C163" t="s">
         <v>1361</v>
@@ -24559,7 +24559,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>142570</v>
+        <v>173770</v>
       </c>
       <c r="C164" t="s">
         <v>1367</v>
@@ -24709,7 +24709,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>142571</v>
+        <v>173771</v>
       </c>
       <c r="C166" t="s">
         <v>1382</v>
@@ -24843,7 +24843,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="n">
-        <v>142572</v>
+        <v>173772</v>
       </c>
       <c r="C168" t="s">
         <v>1398</v>
@@ -24918,7 +24918,7 @@
         <v>165</v>
       </c>
       <c r="B169" t="n">
-        <v>142573</v>
+        <v>173773</v>
       </c>
       <c r="C169" t="s">
         <v>1407</v>
@@ -25058,7 +25058,7 @@
         <v>165</v>
       </c>
       <c r="B171" t="n">
-        <v>142574</v>
+        <v>173774</v>
       </c>
       <c r="C171" t="s">
         <v>1424</v>
@@ -25119,7 +25119,7 @@
         <v>165</v>
       </c>
       <c r="B172" t="n">
-        <v>142575</v>
+        <v>173775</v>
       </c>
       <c r="C172" t="s">
         <v>1433</v>
@@ -25194,7 +25194,7 @@
         <v>165</v>
       </c>
       <c r="B173" t="n">
-        <v>142576</v>
+        <v>173776</v>
       </c>
       <c r="C173" t="s">
         <v>1442</v>
@@ -25269,7 +25269,7 @@
         <v>165</v>
       </c>
       <c r="B174" t="n">
-        <v>142577</v>
+        <v>173777</v>
       </c>
       <c r="C174" t="s">
         <v>1449</v>
@@ -25344,7 +25344,7 @@
         <v>165</v>
       </c>
       <c r="B175" t="n">
-        <v>142578</v>
+        <v>173778</v>
       </c>
       <c r="C175" t="s">
         <v>1455</v>
@@ -25419,7 +25419,7 @@
         <v>165</v>
       </c>
       <c r="B176" t="n">
-        <v>142579</v>
+        <v>173779</v>
       </c>
       <c r="C176" t="s">
         <v>1464</v>
@@ -25630,7 +25630,7 @@
         <v>165</v>
       </c>
       <c r="B179" t="n">
-        <v>142580</v>
+        <v>173780</v>
       </c>
       <c r="C179" t="s">
         <v>1487</v>
@@ -25705,7 +25705,7 @@
         <v>165</v>
       </c>
       <c r="B180" t="n">
-        <v>142581</v>
+        <v>173781</v>
       </c>
       <c r="C180" t="s">
         <v>1496</v>
@@ -25780,7 +25780,7 @@
         <v>165</v>
       </c>
       <c r="B181" t="n">
-        <v>142582</v>
+        <v>173782</v>
       </c>
       <c r="C181" t="s">
         <v>1502</v>
@@ -25855,7 +25855,7 @@
         <v>165</v>
       </c>
       <c r="B182" t="n">
-        <v>142583</v>
+        <v>173783</v>
       </c>
       <c r="C182" t="s">
         <v>1512</v>
@@ -25930,7 +25930,7 @@
         <v>165</v>
       </c>
       <c r="B183" t="n">
-        <v>142584</v>
+        <v>173784</v>
       </c>
       <c r="C183" t="s">
         <v>1521</v>
@@ -26070,7 +26070,7 @@
         <v>165</v>
       </c>
       <c r="B185" t="n">
-        <v>142585</v>
+        <v>173785</v>
       </c>
       <c r="C185" t="s">
         <v>1537</v>
@@ -26145,7 +26145,7 @@
         <v>165</v>
       </c>
       <c r="B186" t="n">
-        <v>142586</v>
+        <v>173786</v>
       </c>
       <c r="C186" t="s">
         <v>1546</v>
@@ -26370,7 +26370,7 @@
         <v>165</v>
       </c>
       <c r="B189" t="n">
-        <v>142587</v>
+        <v>173787</v>
       </c>
       <c r="C189" t="s">
         <v>1568</v>
@@ -26510,7 +26510,7 @@
         <v>165</v>
       </c>
       <c r="B191" t="n">
-        <v>142588</v>
+        <v>173788</v>
       </c>
       <c r="C191" t="s">
         <v>1581</v>
@@ -26731,7 +26731,7 @@
         <v>165</v>
       </c>
       <c r="B194" t="n">
-        <v>142589</v>
+        <v>173789</v>
       </c>
       <c r="C194" t="s">
         <v>1604</v>
@@ -26881,7 +26881,7 @@
         <v>165</v>
       </c>
       <c r="B196" t="n">
-        <v>142590</v>
+        <v>173790</v>
       </c>
       <c r="C196" t="s">
         <v>1620</v>
@@ -27017,7 +27017,7 @@
         <v>165</v>
       </c>
       <c r="B198" t="n">
-        <v>142591</v>
+        <v>173791</v>
       </c>
       <c r="C198" t="s">
         <v>1633</v>
@@ -27092,7 +27092,7 @@
         <v>165</v>
       </c>
       <c r="B199" t="n">
-        <v>142592</v>
+        <v>142538</v>
       </c>
       <c r="C199" t="s">
         <v>1641</v>
@@ -27167,7 +27167,7 @@
         <v>165</v>
       </c>
       <c r="B200" t="n">
-        <v>142593</v>
+        <v>173792</v>
       </c>
       <c r="C200" t="s">
         <v>1650</v>
@@ -27242,7 +27242,7 @@
         <v>165</v>
       </c>
       <c r="B201" t="n">
-        <v>142594</v>
+        <v>173793</v>
       </c>
       <c r="C201" t="s">
         <v>1657</v>
@@ -27317,7 +27317,7 @@
         <v>165</v>
       </c>
       <c r="B202" t="n">
-        <v>142595</v>
+        <v>173794</v>
       </c>
       <c r="C202" t="s">
         <v>1666</v>
@@ -27467,7 +27467,7 @@
         <v>165</v>
       </c>
       <c r="B204" t="n">
-        <v>142596</v>
+        <v>173795</v>
       </c>
       <c r="C204" t="s">
         <v>1680</v>
@@ -27528,7 +27528,7 @@
         <v>165</v>
       </c>
       <c r="B205" t="n">
-        <v>142597</v>
+        <v>173796</v>
       </c>
       <c r="C205" t="s">
         <v>1687</v>
@@ -27593,7 +27593,7 @@
         <v>165</v>
       </c>
       <c r="B206" t="n">
-        <v>142598</v>
+        <v>173797</v>
       </c>
       <c r="C206" t="s">
         <v>1693</v>
@@ -27733,7 +27733,7 @@
         <v>165</v>
       </c>
       <c r="B208" t="n">
-        <v>142599</v>
+        <v>173798</v>
       </c>
       <c r="C208" t="s">
         <v>1711</v>
@@ -27883,7 +27883,7 @@
         <v>165</v>
       </c>
       <c r="B210" t="n">
-        <v>142600</v>
+        <v>173799</v>
       </c>
       <c r="C210" t="s">
         <v>1730</v>
@@ -28094,7 +28094,7 @@
         <v>165</v>
       </c>
       <c r="B213" t="n">
-        <v>142601</v>
+        <v>173800</v>
       </c>
       <c r="C213" t="s">
         <v>1757</v>
@@ -28388,7 +28388,7 @@
         <v>165</v>
       </c>
       <c r="B217" t="n">
-        <v>142602</v>
+        <v>173801</v>
       </c>
       <c r="C217" t="s">
         <v>1794</v>
@@ -28463,7 +28463,7 @@
         <v>165</v>
       </c>
       <c r="B218" t="n">
-        <v>142603</v>
+        <v>173802</v>
       </c>
       <c r="C218" t="s">
         <v>1801</v>
@@ -28534,7 +28534,7 @@
         <v>165</v>
       </c>
       <c r="B219" t="n">
-        <v>142604</v>
+        <v>173803</v>
       </c>
       <c r="C219" t="s">
         <v>1810</v>
@@ -28609,7 +28609,7 @@
         <v>165</v>
       </c>
       <c r="B220" t="n">
-        <v>142605</v>
+        <v>173804</v>
       </c>
       <c r="C220" t="s">
         <v>1816</v>
@@ -28755,7 +28755,7 @@
         <v>165</v>
       </c>
       <c r="B222" t="n">
-        <v>142606</v>
+        <v>173805</v>
       </c>
       <c r="C222" t="s">
         <v>1835</v>
@@ -28895,7 +28895,7 @@
         <v>165</v>
       </c>
       <c r="B224" t="n">
-        <v>142608</v>
+        <v>173806</v>
       </c>
       <c r="C224" t="s">
         <v>1849</v>
@@ -28964,7 +28964,7 @@
         <v>165</v>
       </c>
       <c r="B225" t="n">
-        <v>142609</v>
+        <v>173807</v>
       </c>
       <c r="C225" t="s">
         <v>1858</v>
@@ -29039,7 +29039,7 @@
         <v>165</v>
       </c>
       <c r="B226" t="n">
-        <v>142610</v>
+        <v>173808</v>
       </c>
       <c r="C226" t="s">
         <v>1865</v>
@@ -29114,7 +29114,7 @@
         <v>165</v>
       </c>
       <c r="B227" t="n">
-        <v>142611</v>
+        <v>173809</v>
       </c>
       <c r="C227" t="s">
         <v>1874</v>
@@ -29260,7 +29260,7 @@
         <v>165</v>
       </c>
       <c r="B229" t="n">
-        <v>142612</v>
+        <v>173810</v>
       </c>
       <c r="C229" t="s">
         <v>1890</v>
@@ -29615,7 +29615,7 @@
         <v>165</v>
       </c>
       <c r="B234" t="n">
-        <v>142613</v>
+        <v>173811</v>
       </c>
       <c r="C234" t="s">
         <v>1934</v>
@@ -29690,7 +29690,7 @@
         <v>165</v>
       </c>
       <c r="B235" t="n">
-        <v>142614</v>
+        <v>173812</v>
       </c>
       <c r="C235" t="s">
         <v>1941</v>
@@ -29765,7 +29765,7 @@
         <v>165</v>
       </c>
       <c r="B236" t="n">
-        <v>142615</v>
+        <v>173813</v>
       </c>
       <c r="C236" t="s">
         <v>1950</v>
@@ -29840,7 +29840,7 @@
         <v>165</v>
       </c>
       <c r="B237" t="n">
-        <v>142616</v>
+        <v>173814</v>
       </c>
       <c r="C237" t="s">
         <v>1957</v>
@@ -29976,7 +29976,7 @@
         <v>165</v>
       </c>
       <c r="B239" t="n">
-        <v>142617</v>
+        <v>173815</v>
       </c>
       <c r="C239" t="s">
         <v>1972</v>
@@ -30051,7 +30051,7 @@
         <v>165</v>
       </c>
       <c r="B240" t="n">
-        <v>142618</v>
+        <v>173816</v>
       </c>
       <c r="C240" t="s">
         <v>1980</v>
@@ -30272,7 +30272,7 @@
         <v>165</v>
       </c>
       <c r="B243" t="n">
-        <v>142619</v>
+        <v>173817</v>
       </c>
       <c r="C243" t="s">
         <v>2008</v>
@@ -30337,7 +30337,7 @@
         <v>165</v>
       </c>
       <c r="B244" t="n">
-        <v>142620</v>
+        <v>173818</v>
       </c>
       <c r="C244" t="s">
         <v>2017</v>
@@ -30562,7 +30562,7 @@
         <v>165</v>
       </c>
       <c r="B247" t="n">
-        <v>142621</v>
+        <v>173819</v>
       </c>
       <c r="C247" t="s">
         <v>2039</v>
@@ -30698,7 +30698,7 @@
         <v>165</v>
       </c>
       <c r="B249" t="n">
-        <v>142622</v>
+        <v>173820</v>
       </c>
       <c r="C249" t="s">
         <v>2059</v>
@@ -30773,7 +30773,7 @@
         <v>165</v>
       </c>
       <c r="B250" t="n">
-        <v>142623</v>
+        <v>173821</v>
       </c>
       <c r="C250" t="s">
         <v>2068</v>
@@ -30838,7 +30838,7 @@
         <v>165</v>
       </c>
       <c r="B251" t="n">
-        <v>142624</v>
+        <v>173822</v>
       </c>
       <c r="C251" t="s">
         <v>2075</v>
@@ -31053,7 +31053,7 @@
         <v>165</v>
       </c>
       <c r="B254" t="n">
-        <v>142625</v>
+        <v>173823</v>
       </c>
       <c r="C254" t="s">
         <v>2100</v>
@@ -31124,7 +31124,7 @@
         <v>165</v>
       </c>
       <c r="B255" t="n">
-        <v>142626</v>
+        <v>173824</v>
       </c>
       <c r="C255" t="s">
         <v>2109</v>
@@ -31339,7 +31339,7 @@
         <v>165</v>
       </c>
       <c r="B258" t="n">
-        <v>142627</v>
+        <v>173825</v>
       </c>
       <c r="C258" t="s">
         <v>2137</v>
@@ -31414,7 +31414,7 @@
         <v>165</v>
       </c>
       <c r="B259" t="n">
-        <v>142628</v>
+        <v>173826</v>
       </c>
       <c r="C259" t="s">
         <v>2146</v>
@@ -31489,7 +31489,7 @@
         <v>165</v>
       </c>
       <c r="B260" t="n">
-        <v>142629</v>
+        <v>173827</v>
       </c>
       <c r="C260" t="s">
         <v>2152</v>
@@ -31633,7 +31633,7 @@
         <v>165</v>
       </c>
       <c r="B262" t="n">
-        <v>142630</v>
+        <v>173828</v>
       </c>
       <c r="C262" t="s">
         <v>2168</v>
@@ -31708,7 +31708,7 @@
         <v>165</v>
       </c>
       <c r="B263" t="n">
-        <v>142631</v>
+        <v>173829</v>
       </c>
       <c r="C263" t="s">
         <v>2174</v>
@@ -31777,7 +31777,7 @@
         <v>165</v>
       </c>
       <c r="B264" t="n">
-        <v>142632</v>
+        <v>173830</v>
       </c>
       <c r="C264" t="s">
         <v>2184</v>
@@ -31923,7 +31923,7 @@
         <v>165</v>
       </c>
       <c r="B266" t="n">
-        <v>142633</v>
+        <v>173831</v>
       </c>
       <c r="C266" t="s">
         <v>2199</v>
@@ -32361,7 +32361,7 @@
         <v>165</v>
       </c>
       <c r="B272" t="n">
-        <v>142634</v>
+        <v>173832</v>
       </c>
       <c r="C272" t="s">
         <v>2249</v>
@@ -32422,7 +32422,7 @@
         <v>165</v>
       </c>
       <c r="B273" t="n">
-        <v>142635</v>
+        <v>173833</v>
       </c>
       <c r="C273" t="s">
         <v>2258</v>
@@ -32556,7 +32556,7 @@
         <v>165</v>
       </c>
       <c r="B275" t="n">
-        <v>142636</v>
+        <v>173834</v>
       </c>
       <c r="C275" t="s">
         <v>2271</v>
@@ -32771,7 +32771,7 @@
         <v>165</v>
       </c>
       <c r="B278" t="n">
-        <v>142637</v>
+        <v>173835</v>
       </c>
       <c r="C278" t="s">
         <v>2292</v>
@@ -32846,7 +32846,7 @@
         <v>165</v>
       </c>
       <c r="B279" t="n">
-        <v>142638</v>
+        <v>173836</v>
       </c>
       <c r="C279" t="s">
         <v>2301</v>
@@ -32921,7 +32921,7 @@
         <v>165</v>
       </c>
       <c r="B280" t="n">
-        <v>142639</v>
+        <v>173837</v>
       </c>
       <c r="C280" t="s">
         <v>2310</v>
@@ -32992,7 +32992,7 @@
         <v>165</v>
       </c>
       <c r="B281" t="n">
-        <v>142640</v>
+        <v>173838</v>
       </c>
       <c r="C281" t="s">
         <v>2320</v>
@@ -33063,7 +33063,7 @@
         <v>165</v>
       </c>
       <c r="B282" t="n">
-        <v>142641</v>
+        <v>173839</v>
       </c>
       <c r="C282" t="s">
         <v>2329</v>
@@ -33132,7 +33132,7 @@
         <v>165</v>
       </c>
       <c r="B283" t="n">
-        <v>142642</v>
+        <v>173840</v>
       </c>
       <c r="C283" t="s">
         <v>2337</v>
@@ -33276,7 +33276,7 @@
         <v>165</v>
       </c>
       <c r="B285" t="n">
-        <v>142643</v>
+        <v>173841</v>
       </c>
       <c r="C285" t="s">
         <v>2355</v>
@@ -33341,7 +33341,7 @@
         <v>165</v>
       </c>
       <c r="B286" t="n">
-        <v>142644</v>
+        <v>173842</v>
       </c>
       <c r="C286" t="s">
         <v>2362</v>
@@ -33410,7 +33410,7 @@
         <v>165</v>
       </c>
       <c r="B287" t="n">
-        <v>142645</v>
+        <v>173843</v>
       </c>
       <c r="C287" t="s">
         <v>2371</v>
@@ -33706,7 +33706,7 @@
         <v>165</v>
       </c>
       <c r="B291" t="n">
-        <v>142646</v>
+        <v>173844</v>
       </c>
       <c r="C291" t="s">
         <v>2402</v>
@@ -33931,7 +33931,7 @@
         <v>165</v>
       </c>
       <c r="B294" t="n">
-        <v>142591</v>
+        <v>142538</v>
       </c>
       <c r="C294" t="s">
         <v>1641</v>
@@ -34142,7 +34142,7 @@
         <v>165</v>
       </c>
       <c r="B297" t="n">
-        <v>142647</v>
+        <v>173845</v>
       </c>
       <c r="C297" t="s">
         <v>2449</v>
@@ -34288,7 +34288,7 @@
         <v>165</v>
       </c>
       <c r="B299" t="n">
-        <v>142648</v>
+        <v>173846</v>
       </c>
       <c r="C299" t="s">
         <v>2465</v>
@@ -34588,7 +34588,7 @@
         <v>165</v>
       </c>
       <c r="B303" t="n">
-        <v>142649</v>
+        <v>173847</v>
       </c>
       <c r="C303" t="s">
         <v>2494</v>
@@ -34663,7 +34663,7 @@
         <v>165</v>
       </c>
       <c r="B304" t="n">
-        <v>142650</v>
+        <v>173848</v>
       </c>
       <c r="C304" t="s">
         <v>2503</v>
@@ -34734,7 +34734,7 @@
         <v>165</v>
       </c>
       <c r="B305" t="n">
-        <v>142651</v>
+        <v>173849</v>
       </c>
       <c r="C305" t="s">
         <v>2512</v>
@@ -34803,7 +34803,7 @@
         <v>165</v>
       </c>
       <c r="B306" t="n">
-        <v>142652</v>
+        <v>173850</v>
       </c>
       <c r="C306" t="s">
         <v>2521</v>
@@ -34874,7 +34874,7 @@
         <v>165</v>
       </c>
       <c r="B307" t="n">
-        <v>142653</v>
+        <v>173851</v>
       </c>
       <c r="C307" t="s">
         <v>2528</v>
@@ -34935,7 +34935,7 @@
         <v>165</v>
       </c>
       <c r="B308" t="n">
-        <v>142654</v>
+        <v>173852</v>
       </c>
       <c r="C308" t="s">
         <v>2537</v>
@@ -35156,7 +35156,7 @@
         <v>165</v>
       </c>
       <c r="B311" t="n">
-        <v>142655</v>
+        <v>173853</v>
       </c>
       <c r="C311" t="s">
         <v>2563</v>
@@ -35375,7 +35375,7 @@
         <v>165</v>
       </c>
       <c r="B314" t="n">
-        <v>142656</v>
+        <v>173854</v>
       </c>
       <c r="C314" t="s">
         <v>2585</v>
@@ -35450,7 +35450,7 @@
         <v>165</v>
       </c>
       <c r="B315" t="n">
-        <v>142657</v>
+        <v>173855</v>
       </c>
       <c r="C315" t="s">
         <v>2594</v>
@@ -35596,7 +35596,7 @@
         <v>165</v>
       </c>
       <c r="B317" t="n">
-        <v>142658</v>
+        <v>173856</v>
       </c>
       <c r="C317" t="s">
         <v>2607</v>
@@ -35896,7 +35896,7 @@
         <v>165</v>
       </c>
       <c r="B321" t="n">
-        <v>142659</v>
+        <v>173857</v>
       </c>
       <c r="C321" t="s">
         <v>2638</v>
@@ -35971,7 +35971,7 @@
         <v>165</v>
       </c>
       <c r="B322" t="n">
-        <v>142660</v>
+        <v>173858</v>
       </c>
       <c r="C322" t="s">
         <v>2647</v>
@@ -36046,7 +36046,7 @@
         <v>165</v>
       </c>
       <c r="B323" t="n">
-        <v>142661</v>
+        <v>173859</v>
       </c>
       <c r="C323" t="s">
         <v>2653</v>
@@ -36117,7 +36117,7 @@
         <v>165</v>
       </c>
       <c r="B324" t="n">
-        <v>142662</v>
+        <v>173860</v>
       </c>
       <c r="C324" t="s">
         <v>2660</v>
@@ -36342,7 +36342,7 @@
         <v>165</v>
       </c>
       <c r="B327" t="n">
-        <v>142663</v>
+        <v>173861</v>
       </c>
       <c r="C327" t="s">
         <v>2681</v>
@@ -36411,7 +36411,7 @@
         <v>165</v>
       </c>
       <c r="B328" t="n">
-        <v>142664</v>
+        <v>173862</v>
       </c>
       <c r="C328" t="s">
         <v>2689</v>
@@ -36711,7 +36711,7 @@
         <v>165</v>
       </c>
       <c r="B332" t="n">
-        <v>142665</v>
+        <v>173863</v>
       </c>
       <c r="C332" t="s">
         <v>2719</v>
@@ -36786,7 +36786,7 @@
         <v>165</v>
       </c>
       <c r="B333" t="n">
-        <v>142666</v>
+        <v>173864</v>
       </c>
       <c r="C333" t="s">
         <v>2728</v>
@@ -36857,7 +36857,7 @@
         <v>165</v>
       </c>
       <c r="B334" t="n">
-        <v>142667</v>
+        <v>173865</v>
       </c>
       <c r="C334" t="s">
         <v>2736</v>
@@ -36997,7 +36997,7 @@
         <v>165</v>
       </c>
       <c r="B336" t="n">
-        <v>142668</v>
+        <v>173866</v>
       </c>
       <c r="C336" t="s">
         <v>2753</v>
@@ -37291,7 +37291,7 @@
         <v>165</v>
       </c>
       <c r="B340" t="n">
-        <v>142669</v>
+        <v>173867</v>
       </c>
       <c r="C340" t="s">
         <v>2784</v>
@@ -37366,7 +37366,7 @@
         <v>165</v>
       </c>
       <c r="B341" t="n">
-        <v>142670</v>
+        <v>173868</v>
       </c>
       <c r="C341" t="s">
         <v>2793</v>
@@ -37441,7 +37441,7 @@
         <v>165</v>
       </c>
       <c r="B342" t="n">
-        <v>142671</v>
+        <v>173869</v>
       </c>
       <c r="C342" t="s">
         <v>2800</v>
@@ -37516,7 +37516,7 @@
         <v>165</v>
       </c>
       <c r="B343" t="n">
-        <v>142672</v>
+        <v>173870</v>
       </c>
       <c r="C343" t="s">
         <v>2809</v>
@@ -37816,7 +37816,7 @@
         <v>165</v>
       </c>
       <c r="B347" t="n">
-        <v>142673</v>
+        <v>173871</v>
       </c>
       <c r="C347" t="s">
         <v>2838</v>
@@ -37952,7 +37952,7 @@
         <v>165</v>
       </c>
       <c r="B349" t="n">
-        <v>142674</v>
+        <v>173872</v>
       </c>
       <c r="C349" t="s">
         <v>2856</v>
@@ -38023,7 +38023,7 @@
         <v>165</v>
       </c>
       <c r="B350" t="n">
-        <v>142675</v>
+        <v>173873</v>
       </c>
       <c r="C350" t="s">
         <v>2865</v>
@@ -38167,7 +38167,7 @@
         <v>165</v>
       </c>
       <c r="B352" t="n">
-        <v>142676</v>
+        <v>173874</v>
       </c>
       <c r="C352" t="s">
         <v>2883</v>
@@ -38236,7 +38236,7 @@
         <v>165</v>
       </c>
       <c r="B353" t="n">
-        <v>142677</v>
+        <v>173875</v>
       </c>
       <c r="C353" t="s">
         <v>2891</v>
@@ -38386,7 +38386,7 @@
         <v>165</v>
       </c>
       <c r="B355" t="n">
-        <v>142678</v>
+        <v>173876</v>
       </c>
       <c r="C355" t="s">
         <v>2904</v>
@@ -38457,7 +38457,7 @@
         <v>165</v>
       </c>
       <c r="B356" t="n">
-        <v>142679</v>
+        <v>173877</v>
       </c>
       <c r="C356" t="s">
         <v>2913</v>
@@ -38532,7 +38532,7 @@
         <v>165</v>
       </c>
       <c r="B357" t="n">
-        <v>142680</v>
+        <v>173878</v>
       </c>
       <c r="C357" t="s">
         <v>2920</v>
@@ -38980,7 +38980,7 @@
         <v>165</v>
       </c>
       <c r="B363" t="n">
-        <v>142681</v>
+        <v>173879</v>
       </c>
       <c r="C363" t="s">
         <v>2959</v>
@@ -39130,7 +39130,7 @@
         <v>165</v>
       </c>
       <c r="B365" t="n">
-        <v>142682</v>
+        <v>173880</v>
       </c>
       <c r="C365" t="s">
         <v>2974</v>
@@ -39355,7 +39355,7 @@
         <v>165</v>
       </c>
       <c r="B368" t="n">
-        <v>142683</v>
+        <v>173881</v>
       </c>
       <c r="C368" t="s">
         <v>2998</v>
@@ -39505,7 +39505,7 @@
         <v>165</v>
       </c>
       <c r="B370" t="n">
-        <v>142684</v>
+        <v>173882</v>
       </c>
       <c r="C370" t="s">
         <v>3015</v>
@@ -39580,7 +39580,7 @@
         <v>165</v>
       </c>
       <c r="B371" t="n">
-        <v>142685</v>
+        <v>173883</v>
       </c>
       <c r="C371" t="s">
         <v>3023</v>
@@ -40105,7 +40105,7 @@
         <v>165</v>
       </c>
       <c r="B378" t="n">
-        <v>142686</v>
+        <v>173884</v>
       </c>
       <c r="C378" t="s">
         <v>3082</v>
@@ -40180,7 +40180,7 @@
         <v>165</v>
       </c>
       <c r="B379" t="n">
-        <v>142687</v>
+        <v>173885</v>
       </c>
       <c r="C379" t="s">
         <v>3088</v>
@@ -40405,7 +40405,7 @@
         <v>165</v>
       </c>
       <c r="B382" t="n">
-        <v>142688</v>
+        <v>173886</v>
       </c>
       <c r="C382" t="s">
         <v>3112</v>
@@ -40480,7 +40480,7 @@
         <v>165</v>
       </c>
       <c r="B383" t="n">
-        <v>142689</v>
+        <v>173887</v>
       </c>
       <c r="C383" t="s">
         <v>3118</v>
@@ -40705,7 +40705,7 @@
         <v>165</v>
       </c>
       <c r="B386" t="n">
-        <v>142690</v>
+        <v>173888</v>
       </c>
       <c r="C386" t="s">
         <v>3141</v>
@@ -41005,7 +41005,7 @@
         <v>165</v>
       </c>
       <c r="B390" t="n">
-        <v>142691</v>
+        <v>173889</v>
       </c>
       <c r="C390" t="s">
         <v>3171</v>
@@ -41303,7 +41303,7 @@
         <v>165</v>
       </c>
       <c r="B394" t="n">
-        <v>142692</v>
+        <v>173890</v>
       </c>
       <c r="C394" t="s">
         <v>3200</v>
@@ -41378,7 +41378,7 @@
         <v>165</v>
       </c>
       <c r="B395" t="n">
-        <v>142693</v>
+        <v>173891</v>
       </c>
       <c r="C395" t="s">
         <v>3207</v>
@@ -41603,7 +41603,7 @@
         <v>165</v>
       </c>
       <c r="B398" t="n">
-        <v>142694</v>
+        <v>173892</v>
       </c>
       <c r="C398" t="s">
         <v>3235</v>
@@ -41678,7 +41678,7 @@
         <v>165</v>
       </c>
       <c r="B399" t="n">
-        <v>142695</v>
+        <v>173893</v>
       </c>
       <c r="C399" t="s">
         <v>3244</v>
@@ -41753,7 +41753,7 @@
         <v>165</v>
       </c>
       <c r="B400" t="n">
-        <v>142696</v>
+        <v>173894</v>
       </c>
       <c r="C400" t="s">
         <v>3251</v>
@@ -41828,7 +41828,7 @@
         <v>165</v>
       </c>
       <c r="B401" t="n">
-        <v>142697</v>
+        <v>173895</v>
       </c>
       <c r="C401" t="s">
         <v>3258</v>
@@ -41903,7 +41903,7 @@
         <v>165</v>
       </c>
       <c r="B402" t="n">
-        <v>142698</v>
+        <v>173896</v>
       </c>
       <c r="C402" t="s">
         <v>3265</v>
@@ -41978,7 +41978,7 @@
         <v>165</v>
       </c>
       <c r="B403" t="n">
-        <v>142699</v>
+        <v>173897</v>
       </c>
       <c r="C403" t="s">
         <v>3272</v>
@@ -42128,7 +42128,7 @@
         <v>165</v>
       </c>
       <c r="B405" t="n">
-        <v>142700</v>
+        <v>173898</v>
       </c>
       <c r="C405" t="s">
         <v>3288</v>
@@ -42185,7 +42185,7 @@
         <v>165</v>
       </c>
       <c r="B406" t="n">
-        <v>142701</v>
+        <v>173899</v>
       </c>
       <c r="C406" t="s">
         <v>3295</v>
@@ -42260,7 +42260,7 @@
         <v>165</v>
       </c>
       <c r="B407" t="n">
-        <v>142702</v>
+        <v>173900</v>
       </c>
       <c r="C407" t="s">
         <v>3302</v>
@@ -42335,7 +42335,7 @@
         <v>165</v>
       </c>
       <c r="B408" t="n">
-        <v>142703</v>
+        <v>173901</v>
       </c>
       <c r="C408" t="s">
         <v>3311</v>
@@ -42485,7 +42485,7 @@
         <v>165</v>
       </c>
       <c r="B410" t="n">
-        <v>142704</v>
+        <v>173902</v>
       </c>
       <c r="C410" t="s">
         <v>3325</v>
@@ -42627,7 +42627,7 @@
         <v>165</v>
       </c>
       <c r="B412" t="n">
-        <v>142705</v>
+        <v>173903</v>
       </c>
       <c r="C412" t="s">
         <v>3337</v>
@@ -42698,7 +42698,7 @@
         <v>165</v>
       </c>
       <c r="B413" t="n">
-        <v>142706</v>
+        <v>173904</v>
       </c>
       <c r="C413" t="s">
         <v>3344</v>
@@ -42769,7 +42769,7 @@
         <v>165</v>
       </c>
       <c r="B414" t="n">
-        <v>142707</v>
+        <v>173905</v>
       </c>
       <c r="C414" t="s">
         <v>3351</v>
@@ -42840,7 +42840,7 @@
         <v>165</v>
       </c>
       <c r="B415" t="n">
-        <v>142708</v>
+        <v>173906</v>
       </c>
       <c r="C415" t="s">
         <v>3356</v>
@@ -42901,7 +42901,7 @@
         <v>165</v>
       </c>
       <c r="B416" t="n">
-        <v>142709</v>
+        <v>173907</v>
       </c>
       <c r="C416" t="s">
         <v>3362</v>
@@ -42972,7 +42972,7 @@
         <v>165</v>
       </c>
       <c r="B417" t="n">
-        <v>142710</v>
+        <v>173908</v>
       </c>
       <c r="C417" t="s">
         <v>3368</v>
@@ -43114,7 +43114,7 @@
         <v>165</v>
       </c>
       <c r="B419" t="n">
-        <v>142711</v>
+        <v>173909</v>
       </c>
       <c r="C419" t="s">
         <v>3381</v>
@@ -43398,7 +43398,7 @@
         <v>165</v>
       </c>
       <c r="B423" t="n">
-        <v>142712</v>
+        <v>173910</v>
       </c>
       <c r="C423" t="s">
         <v>3404</v>
@@ -43459,7 +43459,7 @@
         <v>165</v>
       </c>
       <c r="B424" t="n">
-        <v>142713</v>
+        <v>173911</v>
       </c>
       <c r="C424" t="s">
         <v>3411</v>
@@ -43956,7 +43956,7 @@
         <v>165</v>
       </c>
       <c r="B431" t="n">
-        <v>142714</v>
+        <v>173912</v>
       </c>
       <c r="C431" t="s">
         <v>3451</v>
@@ -44169,7 +44169,7 @@
         <v>165</v>
       </c>
       <c r="B434" t="n">
-        <v>142715</v>
+        <v>173913</v>
       </c>
       <c r="C434" t="s">
         <v>3470</v>
@@ -44240,7 +44240,7 @@
         <v>165</v>
       </c>
       <c r="B435" t="n">
-        <v>142716</v>
+        <v>173914</v>
       </c>
       <c r="C435" t="s">
         <v>3476</v>
@@ -44311,7 +44311,7 @@
         <v>165</v>
       </c>
       <c r="B436" t="n">
-        <v>142717</v>
+        <v>173915</v>
       </c>
       <c r="C436" t="s">
         <v>3485</v>
@@ -44386,7 +44386,7 @@
         <v>165</v>
       </c>
       <c r="B437" t="n">
-        <v>142718</v>
+        <v>173916</v>
       </c>
       <c r="C437" t="s">
         <v>3493</v>
@@ -44824,7 +44824,7 @@
         <v>165</v>
       </c>
       <c r="B443" t="n">
-        <v>142719</v>
+        <v>173917</v>
       </c>
       <c r="C443" t="s">
         <v>3531</v>
@@ -44895,7 +44895,7 @@
         <v>165</v>
       </c>
       <c r="B444" t="n">
-        <v>142720</v>
+        <v>173918</v>
       </c>
       <c r="C444" t="s">
         <v>3537</v>
@@ -45250,7 +45250,7 @@
         <v>165</v>
       </c>
       <c r="B449" t="n">
-        <v>142721</v>
+        <v>142633</v>
       </c>
       <c r="C449" t="s">
         <v>3569</v>
@@ -45321,7 +45321,7 @@
         <v>165</v>
       </c>
       <c r="B450" t="n">
-        <v>142722</v>
+        <v>173919</v>
       </c>
       <c r="C450" t="s">
         <v>3576</v>
@@ -45392,7 +45392,7 @@
         <v>165</v>
       </c>
       <c r="B451" t="n">
-        <v>142723</v>
+        <v>173920</v>
       </c>
       <c r="C451" t="s">
         <v>3582</v>
@@ -45534,7 +45534,7 @@
         <v>165</v>
       </c>
       <c r="B453" t="n">
-        <v>142724</v>
+        <v>142625</v>
       </c>
       <c r="C453" t="s">
         <v>3597</v>
@@ -45676,7 +45676,7 @@
         <v>165</v>
       </c>
       <c r="B455" t="n">
-        <v>142725</v>
+        <v>173921</v>
       </c>
       <c r="C455" t="s">
         <v>3611</v>
@@ -45747,7 +45747,7 @@
         <v>165</v>
       </c>
       <c r="B456" t="n">
-        <v>142726</v>
+        <v>173922</v>
       </c>
       <c r="C456" t="s">
         <v>3618</v>
@@ -45818,7 +45818,7 @@
         <v>165</v>
       </c>
       <c r="B457" t="n">
-        <v>142727</v>
+        <v>173923</v>
       </c>
       <c r="C457" t="s">
         <v>3625</v>
@@ -45885,7 +45885,7 @@
         <v>165</v>
       </c>
       <c r="B458" t="n">
-        <v>142728</v>
+        <v>173924</v>
       </c>
       <c r="C458" t="s">
         <v>3632</v>
@@ -46027,7 +46027,7 @@
         <v>165</v>
       </c>
       <c r="B460" t="n">
-        <v>142729</v>
+        <v>173925</v>
       </c>
       <c r="C460" t="s">
         <v>3645</v>
@@ -46240,7 +46240,7 @@
         <v>165</v>
       </c>
       <c r="B463" t="n">
-        <v>142730</v>
+        <v>173926</v>
       </c>
       <c r="C463" t="s">
         <v>3664</v>
@@ -46372,7 +46372,7 @@
         <v>165</v>
       </c>
       <c r="B465" t="n">
-        <v>142731</v>
+        <v>173927</v>
       </c>
       <c r="C465" t="s">
         <v>3680</v>
@@ -46443,7 +46443,7 @@
         <v>165</v>
       </c>
       <c r="B466" t="n">
-        <v>142732</v>
+        <v>173928</v>
       </c>
       <c r="C466" t="s">
         <v>3687</v>
@@ -46514,7 +46514,7 @@
         <v>165</v>
       </c>
       <c r="B467" t="n">
-        <v>142723</v>
+        <v>142625</v>
       </c>
       <c r="C467" t="s">
         <v>3597</v>
@@ -46585,7 +46585,7 @@
         <v>165</v>
       </c>
       <c r="B468" t="n">
-        <v>142733</v>
+        <v>173929</v>
       </c>
       <c r="C468" t="s">
         <v>3699</v>
@@ -46656,7 +46656,7 @@
         <v>165</v>
       </c>
       <c r="B469" t="n">
-        <v>142734</v>
+        <v>173930</v>
       </c>
       <c r="C469" t="s">
         <v>3705</v>
@@ -46727,7 +46727,7 @@
         <v>165</v>
       </c>
       <c r="B470" t="n">
-        <v>142735</v>
+        <v>173931</v>
       </c>
       <c r="C470" t="s">
         <v>3711</v>
@@ -46798,7 +46798,7 @@
         <v>165</v>
       </c>
       <c r="B471" t="n">
-        <v>142736</v>
+        <v>173932</v>
       </c>
       <c r="C471" t="s">
         <v>3718</v>
@@ -46936,7 +46936,7 @@
         <v>165</v>
       </c>
       <c r="B473" t="n">
-        <v>142737</v>
+        <v>173933</v>
       </c>
       <c r="C473" t="s">
         <v>3730</v>
@@ -47007,7 +47007,7 @@
         <v>165</v>
       </c>
       <c r="B474" t="n">
-        <v>142738</v>
+        <v>173934</v>
       </c>
       <c r="C474" t="s">
         <v>3738</v>
@@ -47216,7 +47216,7 @@
         <v>165</v>
       </c>
       <c r="B477" t="n">
-        <v>142739</v>
+        <v>173935</v>
       </c>
       <c r="C477" t="s">
         <v>3756</v>
@@ -47354,7 +47354,7 @@
         <v>165</v>
       </c>
       <c r="B479" t="n">
-        <v>142740</v>
+        <v>173936</v>
       </c>
       <c r="C479" t="s">
         <v>3769</v>
@@ -47425,7 +47425,7 @@
         <v>165</v>
       </c>
       <c r="B480" t="n">
-        <v>142741</v>
+        <v>173937</v>
       </c>
       <c r="C480" t="s">
         <v>3776</v>
@@ -47638,7 +47638,7 @@
         <v>165</v>
       </c>
       <c r="B483" t="n">
-        <v>142742</v>
+        <v>173938</v>
       </c>
       <c r="C483" t="s">
         <v>3797</v>
@@ -47705,7 +47705,7 @@
         <v>165</v>
       </c>
       <c r="B484" t="n">
-        <v>142743</v>
+        <v>173939</v>
       </c>
       <c r="C484" t="s">
         <v>3803</v>
@@ -47776,7 +47776,7 @@
         <v>165</v>
       </c>
       <c r="B485" t="n">
-        <v>142744</v>
+        <v>173940</v>
       </c>
       <c r="C485" t="s">
         <v>3810</v>
@@ -47847,7 +47847,7 @@
         <v>165</v>
       </c>
       <c r="B486" t="n">
-        <v>142745</v>
+        <v>173941</v>
       </c>
       <c r="C486" t="s">
         <v>3818</v>
@@ -47914,7 +47914,7 @@
         <v>165</v>
       </c>
       <c r="B487" t="n">
-        <v>142746</v>
+        <v>173942</v>
       </c>
       <c r="C487" t="s">
         <v>3824</v>
@@ -48056,7 +48056,7 @@
         <v>165</v>
       </c>
       <c r="B489" t="n">
-        <v>142747</v>
+        <v>173943</v>
       </c>
       <c r="C489" t="s">
         <v>3839</v>
@@ -48125,7 +48125,7 @@
         <v>165</v>
       </c>
       <c r="B490" t="n">
-        <v>142748</v>
+        <v>173944</v>
       </c>
       <c r="C490" t="s">
         <v>3845</v>
@@ -48192,7 +48192,7 @@
         <v>165</v>
       </c>
       <c r="B491" t="n">
-        <v>142749</v>
+        <v>173945</v>
       </c>
       <c r="C491" t="s">
         <v>3853</v>
@@ -48259,7 +48259,7 @@
         <v>165</v>
       </c>
       <c r="B492" t="n">
-        <v>142750</v>
+        <v>173946</v>
       </c>
       <c r="C492" t="s">
         <v>3861</v>
@@ -48330,7 +48330,7 @@
         <v>165</v>
       </c>
       <c r="B493" t="n">
-        <v>142751</v>
+        <v>173947</v>
       </c>
       <c r="C493" t="s">
         <v>3867</v>
@@ -48401,7 +48401,7 @@
         <v>165</v>
       </c>
       <c r="B494" t="n">
-        <v>142752</v>
+        <v>173948</v>
       </c>
       <c r="C494" t="s">
         <v>3873</v>
@@ -48472,7 +48472,7 @@
         <v>165</v>
       </c>
       <c r="B495" t="n">
-        <v>142753</v>
+        <v>173949</v>
       </c>
       <c r="C495" t="s">
         <v>3881</v>
@@ -48543,7 +48543,7 @@
         <v>165</v>
       </c>
       <c r="B496" t="n">
-        <v>142720</v>
+        <v>142633</v>
       </c>
       <c r="C496" t="s">
         <v>3569</v>
@@ -48614,7 +48614,7 @@
         <v>165</v>
       </c>
       <c r="B497" t="n">
-        <v>142754</v>
+        <v>173950</v>
       </c>
       <c r="C497" t="s">
         <v>3895</v>
@@ -48756,7 +48756,7 @@
         <v>165</v>
       </c>
       <c r="B499" t="n">
-        <v>142755</v>
+        <v>173951</v>
       </c>
       <c r="C499" t="s">
         <v>3909</v>
@@ -48898,7 +48898,7 @@
         <v>165</v>
       </c>
       <c r="B501" t="n">
-        <v>142757</v>
+        <v>173952</v>
       </c>
       <c r="C501" t="s">
         <v>3922</v>
@@ -49040,7 +49040,7 @@
         <v>165</v>
       </c>
       <c r="B503" t="n">
-        <v>142758</v>
+        <v>173953</v>
       </c>
       <c r="C503" t="s">
         <v>3938</v>
@@ -49111,7 +49111,7 @@
         <v>165</v>
       </c>
       <c r="B504" t="n">
-        <v>142759</v>
+        <v>173954</v>
       </c>
       <c r="C504" t="s">
         <v>3946</v>
@@ -49182,7 +49182,7 @@
         <v>165</v>
       </c>
       <c r="B505" t="n">
-        <v>142760</v>
+        <v>173955</v>
       </c>
       <c r="C505" t="s">
         <v>3954</v>
@@ -49253,7 +49253,7 @@
         <v>165</v>
       </c>
       <c r="B506" t="n">
-        <v>142761</v>
+        <v>173956</v>
       </c>
       <c r="C506" t="s">
         <v>3962</v>
@@ -49310,7 +49310,7 @@
         <v>165</v>
       </c>
       <c r="B507" t="n">
-        <v>142762</v>
+        <v>173957</v>
       </c>
       <c r="C507" t="s">
         <v>3968</v>
@@ -49452,7 +49452,7 @@
         <v>165</v>
       </c>
       <c r="B509" t="n">
-        <v>142763</v>
+        <v>173958</v>
       </c>
       <c r="C509" t="s">
         <v>3983</v>
@@ -49594,7 +49594,7 @@
         <v>165</v>
       </c>
       <c r="B511" t="n">
-        <v>142764</v>
+        <v>173959</v>
       </c>
       <c r="C511" t="s">
         <v>3999</v>
@@ -49665,7 +49665,7 @@
         <v>165</v>
       </c>
       <c r="B512" t="n">
-        <v>142765</v>
+        <v>173960</v>
       </c>
       <c r="C512" t="s">
         <v>4006</v>
@@ -49736,7 +49736,7 @@
         <v>165</v>
       </c>
       <c r="B513" t="n">
-        <v>142766</v>
+        <v>173961</v>
       </c>
       <c r="C513" t="s">
         <v>4014</v>
@@ -49807,7 +49807,7 @@
         <v>165</v>
       </c>
       <c r="B514" t="n">
-        <v>142767</v>
+        <v>173962</v>
       </c>
       <c r="C514" t="s">
         <v>4021</v>
@@ -49864,7 +49864,7 @@
         <v>165</v>
       </c>
       <c r="B515" t="n">
-        <v>142768</v>
+        <v>173963</v>
       </c>
       <c r="C515" t="s">
         <v>4028</v>
@@ -49929,7 +49929,7 @@
         <v>165</v>
       </c>
       <c r="B516" t="n">
-        <v>142769</v>
+        <v>173964</v>
       </c>
       <c r="C516" t="s">
         <v>4035</v>
@@ -49998,7 +49998,7 @@
         <v>165</v>
       </c>
       <c r="B517" t="n">
-        <v>142770</v>
+        <v>173965</v>
       </c>
       <c r="C517" t="s">
         <v>4043</v>
